--- a/TestData/Web_POS/Staging/Billing/keyboard_shortcut_test_data.xlsx
+++ b/TestData/Web_POS/Staging/Billing/keyboard_shortcut_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\Web_POS\Staging\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>tax_invoice</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>KB_1</t>
@@ -385,25 +388,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border/>
-    <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
-    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -416,7 +402,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -710,8 +696,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="D27">
-      <selection activeCell="G2" sqref="G2:H31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0" topLeftCell="D13">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.542969" defaultRowHeight="12.75"/>
@@ -719,24 +705,32 @@
     <col min="1" max="1" width="11.43" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="48.57" customWidth="1"/>
-    <col min="4" max="4" width="27.85" customWidth="1"/>
-    <col min="5" max="5" width="19.1" customWidth="1"/>
-    <col min="6" max="6" width="14.82" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="19.64" customWidth="1"/>
-    <col min="9" max="9" width="21.07" customWidth="1"/>
-    <col min="10" max="10" width="30.7" customWidth="1"/>
-    <col min="11" max="11" width="18.21" customWidth="1"/>
-    <col min="12" max="12" width="20.18" customWidth="1"/>
-    <col min="13" max="14" width="21.85" customWidth="1"/>
-    <col min="15" max="20" width="11.43" customWidth="1"/>
-    <col min="21" max="21" width="20.71" customWidth="1"/>
-    <col min="22" max="22" width="11.43" customWidth="1"/>
-    <col min="23" max="23" width="14.29" customWidth="1"/>
-    <col min="24" max="1021" width="11.43" customWidth="1"/>
+    <col min="4" max="4" width="10.28516" customWidth="1"/>
+    <col min="5" max="5" width="14.42578" customWidth="1"/>
+    <col min="6" max="6" width="11.71094" customWidth="1"/>
+    <col min="7" max="7" width="19.42578" customWidth="1"/>
+    <col min="8" max="8" width="13.71094" customWidth="1"/>
+    <col min="9" max="9" width="10.85547" customWidth="1"/>
+    <col min="10" max="10" width="22.57031" customWidth="1"/>
+    <col min="11" max="11" width="13.14063" customWidth="1"/>
+    <col min="12" max="12" width="17.14063" customWidth="1"/>
+    <col min="13" max="13" width="11.14063" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="4.570313" customWidth="1"/>
+    <col min="16" max="16" width="4.570313" customWidth="1"/>
+    <col min="17" max="17" width="4.710938" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" customWidth="1"/>
+    <col min="19" max="19" width="6.570313" customWidth="1"/>
+    <col min="20" max="20" width="6.285156" customWidth="1"/>
+    <col min="21" max="21" width="4.710938" customWidth="1"/>
+    <col min="22" max="22" width="4.855469" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="4.570313" customWidth="1"/>
+    <col min="25" max="25" width="4.570313" customWidth="1"/>
+    <col min="26" max="1021" width="11.43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5">
+    <row r="1" ht="38.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,176 +805,185 @@
       </c>
       <c r="Y1" t="s">
         <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1">
         <v>123456</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1">
         <v>123456</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="Z2">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>123456</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
         <v>123456</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="4" ht="38.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6">
-        <v>123456</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" s="7">
         <v>1</v>
@@ -989,67 +992,70 @@
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="5" ht="38.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6">
-        <v>123456</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="6">
-        <v>123456</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="K5" s="7">
         <v>1</v>
@@ -1058,65 +1064,68 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5">
+        <v>9623587412</v>
+      </c>
+    </row>
+    <row r="6" ht="51">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" ht="38.25">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="J6" s="10">
         <v>1</v>
       </c>
@@ -1124,214 +1133,223 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6" s="11">
         <v>45384</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="7" ht="38.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" ht="25.5">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="10">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O7" s="11">
         <v>45384</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R7" s="12">
         <v>7709577438</v>
       </c>
       <c r="S7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z7">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="8" ht="38.25">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" ht="25.5">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="10">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O8" s="11">
         <v>45384</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R8" s="12">
         <v>7709577438</v>
       </c>
       <c r="S8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="9" ht="76.5">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5">
-      <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="6">
-        <v>123456</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="6">
-        <v>123456</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="J9" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9" s="7">
         <v>1</v>
@@ -1340,67 +1358,70 @@
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R9" s="12">
         <v>7709577438</v>
       </c>
       <c r="S9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z9">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="10" ht="38.25">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6">
-        <v>123456</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="6">
-        <v>123456</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="J10" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7">
         <v>1</v>
@@ -1409,65 +1430,68 @@
         <v>2</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R10" s="12">
         <v>7709577438</v>
       </c>
       <c r="S10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z10">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="11" ht="38.25">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J11" s="10">
         <v>1</v>
       </c>
@@ -1475,73 +1499,76 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="11">
         <v>45384</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R11" s="12">
         <v>7709577438</v>
       </c>
       <c r="S11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" t="s">
+        <v>62</v>
+      </c>
+      <c r="X11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="12" ht="38.25">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5">
-      <c r="A12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J12" s="10">
         <v>1</v>
       </c>
@@ -1549,70 +1576,73 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="11">
         <v>45384</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R12" s="12">
         <v>7709577438</v>
       </c>
       <c r="S12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z12">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="13" ht="38.25">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" ht="25.5">
-      <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J13" s="10">
         <v>1</v>
       </c>
@@ -1620,70 +1650,73 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O13" s="11">
         <v>45384</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R13" s="12">
         <v>7709577438</v>
       </c>
       <c r="S13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z13">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="14" ht="38.25">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" ht="25.5">
-      <c r="A14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J14" s="10">
         <v>1</v>
       </c>
@@ -1691,73 +1724,76 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O14" s="11">
         <v>45384</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R14" s="12">
         <v>7709577438</v>
       </c>
       <c r="S14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" t="s">
+        <v>68</v>
+      </c>
+      <c r="X14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z14">
+        <v>9741235864</v>
+      </c>
+    </row>
+    <row r="15" ht="38.25">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W14" t="s">
-        <v>67</v>
-      </c>
-      <c r="X14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" ht="25.5">
-      <c r="A15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="13">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J15" s="10">
         <v>1</v>
       </c>
@@ -1765,72 +1801,75 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O15" s="11">
         <v>45384</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R15" s="12">
         <v>7709577438</v>
       </c>
       <c r="S15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15">
+        <v>9623587412</v>
+      </c>
+    </row>
+    <row r="16" ht="38.25">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="6">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="6">
-        <v>123456</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7">
         <v>1</v>
@@ -1839,65 +1878,68 @@
         <v>1</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R16" s="12">
         <v>7709577438</v>
       </c>
       <c r="S16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z16">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="17" ht="51">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" ht="38.25">
-      <c r="A17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J17" s="10">
         <v>1</v>
       </c>
@@ -1905,143 +1947,149 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O17" s="11">
         <v>45384</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R17" s="12">
         <v>7709577438</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z17">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="14">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="14">
-        <v>123456</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="1">
-        <v>123456</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="J18" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R18" s="12">
         <v>7709577438</v>
       </c>
       <c r="S18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z18">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="19" ht="38.25">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="6">
+        <v>123456</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="6">
-        <v>123456</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="6">
-        <v>123456</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7">
         <v>1</v>
@@ -2050,205 +2098,214 @@
         <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R19" s="12">
         <v>7709577438</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="Z19">
+        <v>7418529630</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1">
         <v>123456</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1">
         <v>123456</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R20" s="12">
         <v>7709577438</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="Z20">
+        <v>9623587412</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
         <v>123456</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1">
         <v>123456</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O21" s="15">
         <v>45384</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R21" s="12">
         <v>7709577438</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T21" s="3">
         <v>300</v>
       </c>
       <c r="U21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z21">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="22" ht="38.25">
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5">
-      <c r="A22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J22" s="10">
         <v>1</v>
       </c>
@@ -2256,70 +2313,73 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O22" s="11">
         <v>45384</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R22" s="12">
         <v>7709577438</v>
       </c>
       <c r="S22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z22">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="23" ht="38.25">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" ht="25.5">
-      <c r="A23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J23" s="10">
         <v>1</v>
       </c>
@@ -2327,70 +2387,73 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O23" s="11">
         <v>45384</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R23" s="12">
         <v>7709577438</v>
       </c>
       <c r="S23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W23" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z23">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="24" ht="38.25">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" ht="25.5">
-      <c r="A24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J24" s="10">
         <v>1</v>
       </c>
@@ -2398,73 +2461,76 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O24" s="11">
         <v>45384</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R24" s="12">
         <v>7709577438</v>
       </c>
       <c r="S24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W24" t="s">
+        <v>62</v>
+      </c>
+      <c r="X24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="25" ht="38.25">
+      <c r="A25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W24" t="s">
-        <v>61</v>
-      </c>
-      <c r="X24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" ht="25.5">
-      <c r="A25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J25" s="10">
         <v>1</v>
       </c>
@@ -2472,70 +2538,73 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O25" s="11">
         <v>45384</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R25" s="12">
         <v>7709577438</v>
       </c>
       <c r="S25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z25">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="26" ht="38.25">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" ht="25.5">
-      <c r="A26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J26" s="10">
         <v>1</v>
       </c>
@@ -2543,70 +2612,73 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O26" s="11">
         <v>45384</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R26" s="12">
         <v>7709577438</v>
       </c>
       <c r="S26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z26">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="27" ht="38.25">
+      <c r="A27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" ht="25.5">
-      <c r="A27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J27" s="10">
         <v>1</v>
       </c>
@@ -2614,70 +2686,73 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O27" s="11">
         <v>45384</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R27" s="12">
         <v>7709577438</v>
       </c>
       <c r="S27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z27">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="28" ht="38.25">
+      <c r="A28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" ht="25.5">
-      <c r="A28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J28" s="10">
         <v>1</v>
       </c>
@@ -2685,70 +2760,73 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O28" s="11">
         <v>45384</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R28" s="12">
         <v>7709577438</v>
       </c>
       <c r="S28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z28">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="29" ht="38.25">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" ht="25.5">
-      <c r="A29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J29" s="10">
         <v>1</v>
       </c>
@@ -2756,70 +2834,73 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O29" s="11">
         <v>45384</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R29" s="12">
         <v>7709577438</v>
       </c>
       <c r="S29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z29">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="30" ht="38.25">
+      <c r="A30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" ht="25.5">
-      <c r="A30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J30" s="10">
         <v>1</v>
       </c>
@@ -2827,70 +2908,73 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O30" s="11">
         <v>45384</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R30" s="12">
         <v>7709577438</v>
       </c>
       <c r="S30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="W30" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z30">
+        <v>7418529630</v>
+      </c>
+    </row>
+    <row r="31" ht="38.25">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5">
-      <c r="A31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J31" s="10">
         <v>1</v>
       </c>
@@ -2898,40 +2982,43 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O31" s="11">
         <v>45384</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R31" s="12">
         <v>7709577438</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W31" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="Z31">
+        <v>7418529630</v>
       </c>
     </row>
   </sheetData>
